--- a/regions/5/dasaqmeba_umushevroba/khelfasi.xlsx
+++ b/regions/5/dasaqmeba_umushevroba/khelfasi.xlsx
@@ -25,7 +25,7 @@
     <t>ლარი</t>
   </si>
   <si>
-    <t>დაქირავებით დასაქმებულთა საშუალო თვიური ნომინალური ხელფასი*, 2010-2020</t>
+    <t>დაქირავებით დასაქმებულთა საშუალო თვიური ნომინალური ხელფასი*, 2010-2022</t>
   </si>
 </sst>
 </file>
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,16 +499,16 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="13" width="8.7109375" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -523,8 +523,8 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -545,15 +545,17 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2">
         <v>2010</v>
@@ -588,8 +590,14 @@
       <c r="L3" s="2">
         <v>2020</v>
       </c>
+      <c r="M3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -626,15 +634,21 @@
       <c r="L4" s="7">
         <v>814.76492125395464</v>
       </c>
+      <c r="M4" s="7">
+        <v>848.63966727628417</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1007.9775951524632</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/5/dasaqmeba_umushevroba/khelfasi.xlsx
+++ b/regions/5/dasaqmeba_umushevroba/khelfasi.xlsx
@@ -25,7 +25,7 @@
     <t>ლარი</t>
   </si>
   <si>
-    <t>დაქირავებით დასაქმებულთა საშუალო თვიური ნომინალური ხელფასი*, 2010-2022</t>
+    <t>დაქირავებით დასაქმებულთა საშუალო თვიური ნომინალური ხელფასი*, 2010-2023</t>
   </si>
 </sst>
 </file>
@@ -499,13 +499,13 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="14" width="8.7109375" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="4"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -551,7 +551,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -596,6 +597,9 @@
       <c r="N3" s="2">
         <v>2022</v>
       </c>
+      <c r="O3" s="2">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -640,6 +644,9 @@
       <c r="N4" s="7">
         <v>1007.9775951524632</v>
       </c>
+      <c r="O4" s="7">
+        <v>1111.971101426474</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -648,7 +655,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
